--- a/biology/Microbiologie/Eugène_Penard/Eugène_Penard.xlsx
+++ b/biology/Microbiologie/Eugène_Penard/Eugène_Penard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Penard</t>
+          <t>Eugène_Penard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Penard, né à Genève le 16 septembre 1855 et mort le 5 janvier 1954, est un biologiste et systématicien suisse.
-Il est un pionnier de l'étude des Amoeba et de leur description morphologique[1].
+Il est un pionnier de l'étude des Amoeba et de leur description morphologique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Penard</t>
+          <t>Eugène_Penard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Citations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>« Entre la parcelle de protoplasma inanimé que l'homme arrivera un jour à fabriquer de toutes pièces, et la plus simple des monères, il existe un abîme, plus infranchissable que celui qui sépare cette même monère de l'être humain le mieux organisé[2] »</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>« Entre la parcelle de protoplasma inanimé que l'homme arrivera un jour à fabriquer de toutes pièces, et la plus simple des monères, il existe un abîme, plus infranchissable que celui qui sépare cette même monère de l'être humain le mieux organisé »</t>
         </is>
       </c>
     </row>
